--- a/data/trans_orig/P44AS3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B4F92F-4C54-4F54-976E-D75968FE27FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F421A67-6BB4-46F7-B108-04432030C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F9E9D16-9A2C-41E2-A2FF-ED96EA7B1909}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E19559E-058B-4171-B6C1-424543B3509A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>33,21%</t>
   </si>
   <si>
-    <t>82,93%</t>
+    <t>82,68%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -160,7 +160,7 @@
     <t>66,79%</t>
   </si>
   <si>
-    <t>17,07%</t>
+    <t>17,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -193,7 +193,7 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>56,77%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>70,64%</t>
@@ -214,7 +214,7 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>43,23%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>87,61%</t>
@@ -295,7 +295,7 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>63,58%</t>
+    <t>63,16%</t>
   </si>
   <si>
     <t>55,1%</t>
@@ -304,7 +304,7 @@
     <t>89,19%</t>
   </si>
   <si>
-    <t>36,42%</t>
+    <t>36,84%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -316,25 +316,25 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,17%</t>
+    <t>97,26%</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926DD250-37BD-4237-BBAC-614B7005E9D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D5893D-0507-4BE7-A848-39F43137321C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2211,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6064C647-F964-40B8-BF7C-9EB9EEF1C1CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58FA75-92F6-4898-83FB-5AB381B10DDA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584A7037-506D-4C62-B88A-654E7C0E026B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46CFAA0-F31B-4E17-B2EA-A3537BB01B2F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F421A67-6BB4-46F7-B108-04432030C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E549C2A2-BC64-474C-A62C-C039CA5BA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E19559E-058B-4171-B6C1-424543B3509A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE753C61-4C78-40D0-B9AC-7564D79CCA62}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -148,7 +148,7 @@
     <t>33,21%</t>
   </si>
   <si>
-    <t>82,68%</t>
+    <t>82,79%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -160,7 +160,7 @@
     <t>66,79%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>17,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -175,55 +175,55 @@
     <t>29,36%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>75,77%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>24,23%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2015 (Tasa respuesta: 0,18%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2016 (Tasa respuesta: 0,18%)</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -241,7 +241,7 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>64,67%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -250,13 +250,13 @@
     <t>8,33%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>47,62%</t>
+    <t>35,33%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -265,7 +265,7 @@
     <t>91,67%</t>
   </si>
   <si>
-    <t>65,08%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D5893D-0507-4BE7-A848-39F43137321C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1099FF8A-81FF-41B1-9DCA-76391AFEBEF3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2211,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58FA75-92F6-4898-83FB-5AB381B10DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FAA5EB-DB2C-4EF2-AAE4-1630D6CB0458}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46CFAA0-F31B-4E17-B2EA-A3537BB01B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4831C671-DFDE-4F16-8D1D-FF849841664A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
